--- a/iTel Mobile/June-July2021iTelMobile.xlsx
+++ b/iTel Mobile/June-July2021iTelMobile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7965" activeTab="2"/>
+    <workbookView windowWidth="19815" windowHeight="7815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="AmtToCollect" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">AmtToCollect!$A$1:$D$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">AmtToCollect!$A$1:$D$175</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="270">
   <si>
     <t>S.No.</t>
   </si>
@@ -822,7 +822,13 @@
     <t>Dues Amount</t>
   </si>
   <si>
+    <t>Kaler Retailer Zone iTel phone dues =&gt;&gt;</t>
+  </si>
+  <si>
     <t>Tabakala</t>
+  </si>
+  <si>
+    <t>ARWAL ZONE RETAILERS iTel phone dues =&gt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -830,10 +836,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="22">
@@ -861,58 +867,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -933,25 +897,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -965,10 +927,18 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -980,8 +950,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -996,9 +973,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1073,6 +1079,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1085,19 +1163,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1109,25 +1175,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1139,91 +1187,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1241,7 +1205,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1272,26 +1278,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1307,33 +1305,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1367,12 +1338,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1390,130 +1396,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1969,11 +1975,11 @@
   <dimension ref="A1:BG175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="AG90" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomRight" activeCell="AH107" sqref="AH107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2174,26 +2180,26 @@
       <c r="A2" s="21"/>
       <c r="B2" s="30">
         <f>SUM(F3:F1200)</f>
-        <v>14600</v>
+        <v>18250</v>
       </c>
       <c r="D2" s="22">
         <f>SUM(H3:H1200)</f>
-        <v>14600</v>
+        <v>18250</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="31">
         <f>H2+I2</f>
-        <v>14600</v>
+        <v>18250</v>
       </c>
       <c r="G2" s="31">
         <f>H2/3650</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2" s="22">
         <f>SUM(J2:BG2)</f>
-        <v>14600</v>
+        <v>18250</v>
       </c>
       <c r="I2" s="25">
         <f>SUM(I3:I1200)</f>
@@ -2297,7 +2303,7 @@
       </c>
       <c r="AH2" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3650</v>
       </c>
       <c r="AI2" s="25">
         <f t="shared" si="0"/>
@@ -8282,15 +8288,15 @@
       </c>
       <c r="F107" s="19">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>3650</v>
       </c>
       <c r="G107" s="19">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107" s="25">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3650</v>
       </c>
       <c r="I107" s="35">
         <v>0</v>
@@ -8319,7 +8325,10 @@
       <c r="AE107" s="1"/>
       <c r="AF107" s="1"/>
       <c r="AG107" s="1"/>
-      <c r="AH107" s="1"/>
+      <c r="AH107" s="1">
+        <f>1*3650</f>
+        <v>3650</v>
+      </c>
       <c r="AI107" s="1"/>
       <c r="AJ107" s="1"/>
       <c r="AK107" s="1"/>
@@ -9178,15 +9187,15 @@
         <v>177</v>
       </c>
       <c r="F129" s="19">
-        <f t="shared" ref="F129:F160" si="14">H129+I129</f>
+        <f t="shared" ref="F129:F175" si="14">H129+I129</f>
         <v>0</v>
       </c>
       <c r="G129" s="19">
-        <f t="shared" ref="G129:G160" si="15">H129/3650</f>
+        <f t="shared" ref="G129:G175" si="15">H129/3650</f>
         <v>0</v>
       </c>
       <c r="H129" s="25">
-        <f t="shared" ref="H129:H160" si="16">SUM(J129:BG129)</f>
+        <f t="shared" ref="H129:H175" si="16">SUM(J129:BG129)</f>
         <v>0</v>
       </c>
       <c r="I129" s="35">
@@ -9986,15 +9995,15 @@
         <v>206</v>
       </c>
       <c r="F161" s="19">
-        <f>H161+I161</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G161" s="19">
-        <f>H161/3650</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H161" s="25">
-        <f>SUM(J161:BG161)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I161" s="35">
@@ -10006,15 +10015,15 @@
         <v>159</v>
       </c>
       <c r="F162" s="19">
-        <f>H162+I162</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G162" s="19">
-        <f>H162/3650</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H162" s="25">
-        <f>SUM(J162:BG162)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I162" s="35">
@@ -10026,15 +10035,15 @@
         <v>160</v>
       </c>
       <c r="F163" s="19">
-        <f>H163+I163</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G163" s="19">
-        <f>H163/3650</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H163" s="25">
-        <f>SUM(J163:BG163)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I163" s="35">
@@ -10046,15 +10055,15 @@
         <v>161</v>
       </c>
       <c r="F164" s="19">
-        <f>H164+I164</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G164" s="19">
-        <f>H164/3650</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H164" s="25">
-        <f>SUM(J164:BG164)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I164" s="35">
@@ -10066,15 +10075,15 @@
         <v>162</v>
       </c>
       <c r="F165" s="19">
-        <f>H165+I165</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G165" s="19">
-        <f>H165/3650</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H165" s="25">
-        <f>SUM(J165:BG165)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I165" s="35">
@@ -10092,15 +10101,15 @@
         <v>207</v>
       </c>
       <c r="F166" s="19">
-        <f>H166+I166</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G166" s="19">
-        <f>H166/3650</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H166" s="25">
-        <f>SUM(J166:BG166)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I166" s="35">
@@ -10118,15 +10127,15 @@
         <v>209</v>
       </c>
       <c r="F167" s="19">
-        <f>H167+I167</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G167" s="19">
-        <f>H167/3650</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H167" s="25">
-        <f>SUM(J167:BG167)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I167" s="35">
@@ -10144,15 +10153,15 @@
         <v>210</v>
       </c>
       <c r="F168" s="19">
-        <f>H168+I168</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G168" s="19">
-        <f>H168/3650</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H168" s="25">
-        <f>SUM(J168:BG168)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I168" s="35">
@@ -10170,15 +10179,15 @@
         <v>211</v>
       </c>
       <c r="F169" s="19">
-        <f>H169+I169</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G169" s="19">
-        <f>H169/3650</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H169" s="25">
-        <f>SUM(J169:BG169)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I169" s="35">
@@ -10196,15 +10205,15 @@
         <v>212</v>
       </c>
       <c r="F170" s="19">
-        <f>H170+I170</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G170" s="19">
-        <f>H170/3650</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H170" s="25">
-        <f>SUM(J170:BG170)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I170" s="35">
@@ -10222,15 +10231,15 @@
         <v>213</v>
       </c>
       <c r="F171" s="19">
-        <f>H171+I171</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G171" s="19">
-        <f>H171/3650</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H171" s="25">
-        <f>SUM(J171:BG171)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I171" s="35">
@@ -10251,15 +10260,15 @@
         <v>215</v>
       </c>
       <c r="F172" s="19">
-        <f>H172+I172</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G172" s="19">
-        <f>H172/3650</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H172" s="25">
-        <f>SUM(J172:BG172)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I172" s="35">
@@ -10277,15 +10286,15 @@
         <v>216</v>
       </c>
       <c r="F173" s="19">
-        <f>H173+I173</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G173" s="19">
-        <f>H173/3650</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H173" s="25">
-        <f>SUM(J173:BG173)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I173" s="35">
@@ -10303,15 +10312,15 @@
         <v>218</v>
       </c>
       <c r="F174" s="19">
-        <f>H174+I174</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G174" s="19">
-        <f>H174/3650</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H174" s="25">
-        <f>SUM(J174:BG174)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I174" s="35">
@@ -10329,15 +10338,15 @@
         <v>219</v>
       </c>
       <c r="F175" s="19">
-        <f>H175+I175</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G175" s="19">
-        <f>H175/3650</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H175" s="25">
-        <f>SUM(J175:BG175)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I175" s="35">
@@ -10359,11 +10368,11 @@
   <dimension ref="A1:BF175"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="BD255" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="AB93" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H99" sqref="H99"/>
+      <selection pane="bottomRight" activeCell="AG108" sqref="AG108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -10566,14 +10575,14 @@
       <c r="E2" s="21"/>
       <c r="F2" s="22">
         <f>SUM(H3:H1200)</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G2" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="22">
         <f>SUM(I2:BF2)</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I2" s="25">
         <f>SUM(I3:I1200)</f>
@@ -10673,7 +10682,7 @@
       </c>
       <c r="AG2" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH2" s="25">
         <f t="shared" si="0"/>
@@ -16487,7 +16496,7 @@
       </c>
       <c r="H107" s="25">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
@@ -16511,7 +16520,9 @@
       <c r="AD107" s="1"/>
       <c r="AE107" s="1"/>
       <c r="AF107" s="1"/>
-      <c r="AG107" s="1"/>
+      <c r="AG107" s="1">
+        <v>1000</v>
+      </c>
       <c r="AH107" s="1"/>
       <c r="AI107" s="1"/>
       <c r="AJ107" s="1"/>
@@ -17044,7 +17055,7 @@
         <v>177</v>
       </c>
       <c r="H129" s="25">
-        <f t="shared" ref="H129:H160" si="6">SUM(I129:BF129)</f>
+        <f t="shared" ref="H129:H175" si="6">SUM(I129:BF129)</f>
         <v>0</v>
       </c>
     </row>
@@ -17500,7 +17511,7 @@
         <v>206</v>
       </c>
       <c r="H161" s="25">
-        <f>SUM(I161:BF161)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17509,7 +17520,7 @@
         <v>159</v>
       </c>
       <c r="H162" s="25">
-        <f>SUM(I162:BF162)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17518,7 +17529,7 @@
         <v>160</v>
       </c>
       <c r="H163" s="25">
-        <f>SUM(I163:BF163)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17527,7 +17538,7 @@
         <v>161</v>
       </c>
       <c r="H164" s="25">
-        <f>SUM(I164:BF164)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17536,7 +17547,7 @@
         <v>162</v>
       </c>
       <c r="H165" s="25">
-        <f>SUM(I165:BF165)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17551,7 +17562,7 @@
         <v>207</v>
       </c>
       <c r="H166" s="25">
-        <f>SUM(I166:BF166)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17566,7 +17577,7 @@
         <v>209</v>
       </c>
       <c r="H167" s="25">
-        <f>SUM(I167:BF167)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17581,7 +17592,7 @@
         <v>210</v>
       </c>
       <c r="H168" s="25">
-        <f>SUM(I168:BF168)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17596,7 +17607,7 @@
         <v>211</v>
       </c>
       <c r="H169" s="25">
-        <f>SUM(I169:BF169)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17611,7 +17622,7 @@
         <v>212</v>
       </c>
       <c r="H170" s="25">
-        <f>SUM(I170:BF170)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17626,7 +17637,7 @@
         <v>213</v>
       </c>
       <c r="H171" s="25">
-        <f>SUM(I171:BF171)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17644,7 +17655,7 @@
         <v>215</v>
       </c>
       <c r="H172" s="25">
-        <f>SUM(I172:BF172)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17659,7 +17670,7 @@
         <v>216</v>
       </c>
       <c r="H173" s="25">
-        <f>SUM(I173:BF173)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17674,7 +17685,7 @@
         <v>218</v>
       </c>
       <c r="H174" s="25">
-        <f>SUM(I174:BF174)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17689,7 +17700,7 @@
         <v>219</v>
       </c>
       <c r="H175" s="25">
-        <f>SUM(I175:BF175)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -17704,11 +17715,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A98" sqref="A98:C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -17737,25 +17748,25 @@
       </c>
       <c r="E1" s="4">
         <f>ROUND(SUM(D3:D1032),0)</f>
-        <v>14600</v>
+        <v>17250</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
-        <v>9</v>
+        <v>267</v>
       </c>
       <c r="D2" s="7">
         <f>Orders!F2-Collection!H2</f>
-        <v>14600</v>
+        <v>17250</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(D3:D97)-D80</f>
         <v>14600</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" hidden="1" spans="1:4">
       <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
@@ -17770,7 +17781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" hidden="1" spans="1:4">
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
@@ -17785,7 +17796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" hidden="1" spans="1:4">
       <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
@@ -17830,7 +17841,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" hidden="1" spans="1:4">
       <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
@@ -17845,7 +17856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" hidden="1" spans="1:4">
       <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
@@ -17860,7 +17871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" hidden="1" spans="1:4">
       <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
@@ -17875,7 +17886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" hidden="1" spans="1:4">
       <c r="A11" s="9" t="s">
         <v>24</v>
       </c>
@@ -17890,7 +17901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" hidden="1" spans="1:4">
       <c r="A12" s="9" t="s">
         <v>24</v>
       </c>
@@ -17905,7 +17916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" hidden="1" spans="1:4">
       <c r="A13" s="9" t="s">
         <v>24</v>
       </c>
@@ -17920,7 +17931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" hidden="1" spans="1:4">
       <c r="A14" s="9" t="s">
         <v>24</v>
       </c>
@@ -17935,7 +17946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" hidden="1" spans="1:4">
       <c r="A15" s="9" t="s">
         <v>24</v>
       </c>
@@ -17950,7 +17961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" hidden="1" spans="1:4">
       <c r="A16" s="9" t="s">
         <v>24</v>
       </c>
@@ -17965,7 +17976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" hidden="1" spans="1:4">
       <c r="A17" s="9" t="s">
         <v>24</v>
       </c>
@@ -17980,7 +17991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" hidden="1" spans="1:4">
       <c r="A18" s="9" t="s">
         <v>24</v>
       </c>
@@ -17995,7 +18006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" hidden="1" spans="1:4">
       <c r="A19" s="9" t="s">
         <v>24</v>
       </c>
@@ -18010,7 +18021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" hidden="1" spans="1:4">
       <c r="A20" s="9" t="s">
         <v>37</v>
       </c>
@@ -18025,7 +18036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" hidden="1" spans="1:4">
       <c r="A21" s="9" t="s">
         <v>37</v>
       </c>
@@ -18040,7 +18051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" hidden="1" spans="1:4">
       <c r="A22" s="9" t="s">
         <v>37</v>
       </c>
@@ -18055,7 +18066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" hidden="1" spans="1:4">
       <c r="A23" s="9" t="s">
         <v>37</v>
       </c>
@@ -18070,7 +18081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" hidden="1" spans="1:4">
       <c r="A24" s="9" t="s">
         <v>37</v>
       </c>
@@ -18085,7 +18096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" hidden="1" spans="1:4">
       <c r="A25" s="9" t="s">
         <v>37</v>
       </c>
@@ -18100,7 +18111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" hidden="1" spans="1:4">
       <c r="A26" s="9" t="s">
         <v>37</v>
       </c>
@@ -18115,7 +18126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" hidden="1" spans="1:4">
       <c r="A27" s="9" t="s">
         <v>37</v>
       </c>
@@ -18130,7 +18141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" hidden="1" spans="1:4">
       <c r="A28" s="9" t="s">
         <v>37</v>
       </c>
@@ -18145,7 +18156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" hidden="1" spans="1:4">
       <c r="A29" s="9" t="s">
         <v>37</v>
       </c>
@@ -18160,7 +18171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" hidden="1" spans="1:4">
       <c r="A30" s="9" t="s">
         <v>37</v>
       </c>
@@ -18175,7 +18186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" hidden="1" spans="1:4">
       <c r="A31" s="9" t="s">
         <v>37</v>
       </c>
@@ -18190,7 +18201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" hidden="1" spans="1:4">
       <c r="A32" s="9" t="s">
         <v>37</v>
       </c>
@@ -18205,7 +18216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" hidden="1" spans="1:4">
       <c r="A33" s="9" t="s">
         <v>37</v>
       </c>
@@ -18220,7 +18231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" hidden="1" spans="1:4">
       <c r="A34" s="9" t="s">
         <v>52</v>
       </c>
@@ -18235,7 +18246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" hidden="1" spans="1:4">
       <c r="A35" s="9" t="s">
         <v>52</v>
       </c>
@@ -18250,7 +18261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" hidden="1" spans="1:4">
       <c r="A36" s="9" t="s">
         <v>52</v>
       </c>
@@ -18265,7 +18276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" hidden="1" spans="1:4">
       <c r="A37" s="9" t="s">
         <v>52</v>
       </c>
@@ -18280,7 +18291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" hidden="1" spans="1:4">
       <c r="A38" s="9" t="s">
         <v>52</v>
       </c>
@@ -18295,7 +18306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" hidden="1" spans="1:4">
       <c r="A39" s="9" t="s">
         <v>52</v>
       </c>
@@ -18310,7 +18321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" hidden="1" spans="1:4">
       <c r="A40" s="9" t="s">
         <v>52</v>
       </c>
@@ -18325,7 +18336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" hidden="1" spans="1:4">
       <c r="A41" s="9" t="s">
         <v>52</v>
       </c>
@@ -18340,7 +18351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" hidden="1" spans="1:4">
       <c r="A42" s="9" t="s">
         <v>52</v>
       </c>
@@ -18355,7 +18366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" hidden="1" spans="1:4">
       <c r="A43" s="9" t="s">
         <v>52</v>
       </c>
@@ -18370,7 +18381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" hidden="1" spans="1:4">
       <c r="A44" s="9" t="s">
         <v>52</v>
       </c>
@@ -18400,7 +18411,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" hidden="1" spans="1:4">
       <c r="A46" s="9" t="s">
         <v>65</v>
       </c>
@@ -18415,7 +18426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" hidden="1" spans="1:4">
       <c r="A47" s="9" t="s">
         <v>65</v>
       </c>
@@ -18430,7 +18441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" hidden="1" spans="1:4">
       <c r="A48" s="9" t="s">
         <v>65</v>
       </c>
@@ -18445,7 +18456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" hidden="1" spans="1:4">
       <c r="A49" s="13" t="s">
         <v>65</v>
       </c>
@@ -18460,7 +18471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" hidden="1" spans="1:4">
       <c r="A50" s="9" t="s">
         <v>65</v>
       </c>
@@ -18490,7 +18501,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" hidden="1" spans="1:4">
       <c r="A52" s="9" t="s">
         <v>65</v>
       </c>
@@ -18505,7 +18516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" hidden="1" spans="1:4">
       <c r="A53" s="9" t="s">
         <v>65</v>
       </c>
@@ -18520,7 +18531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" hidden="1" spans="1:4">
       <c r="A54" s="9" t="s">
         <v>65</v>
       </c>
@@ -18535,7 +18546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" hidden="1" spans="1:4">
       <c r="A55" s="9" t="s">
         <v>65</v>
       </c>
@@ -18550,7 +18561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" hidden="1" spans="1:4">
       <c r="A56" s="9" t="s">
         <v>65</v>
       </c>
@@ -18565,7 +18576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" hidden="1" spans="1:4">
       <c r="A57" s="9" t="s">
         <v>65</v>
       </c>
@@ -18580,7 +18591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" hidden="1" spans="1:4">
       <c r="A58" s="9" t="s">
         <v>78</v>
       </c>
@@ -18595,7 +18606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" hidden="1" spans="1:4">
       <c r="A59" s="9" t="s">
         <v>78</v>
       </c>
@@ -18610,7 +18621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" hidden="1" spans="1:4">
       <c r="A60" s="9" t="s">
         <v>78</v>
       </c>
@@ -18625,7 +18636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" hidden="1" spans="1:4">
       <c r="A61" s="9" t="s">
         <v>78</v>
       </c>
@@ -18640,7 +18651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" hidden="1" spans="1:4">
       <c r="A62" s="9" t="s">
         <v>83</v>
       </c>
@@ -18655,7 +18666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" hidden="1" spans="1:4">
       <c r="A63" s="13" t="s">
         <v>83</v>
       </c>
@@ -18670,7 +18681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" hidden="1" spans="1:4">
       <c r="A64" s="9" t="s">
         <v>83</v>
       </c>
@@ -18685,7 +18696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" hidden="1" spans="1:4">
       <c r="A65" s="9" t="s">
         <v>88</v>
       </c>
@@ -18700,7 +18711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" hidden="1" spans="1:4">
       <c r="A66" s="9" t="s">
         <v>88</v>
       </c>
@@ -18715,7 +18726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" hidden="1" spans="1:4">
       <c r="A67" s="9" t="s">
         <v>91</v>
       </c>
@@ -18730,7 +18741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" hidden="1" spans="1:4">
       <c r="A68" s="9" t="s">
         <v>93</v>
       </c>
@@ -18745,7 +18756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" hidden="1" spans="1:4">
       <c r="A69" s="9" t="s">
         <v>93</v>
       </c>
@@ -18760,7 +18771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" hidden="1" spans="1:4">
       <c r="A70" s="9" t="s">
         <v>93</v>
       </c>
@@ -18775,7 +18786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" hidden="1" spans="1:4">
       <c r="A71" s="9" t="s">
         <v>93</v>
       </c>
@@ -18790,7 +18801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" hidden="1" spans="1:4">
       <c r="A72" s="9" t="s">
         <v>93</v>
       </c>
@@ -18805,7 +18816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" hidden="1" spans="1:4">
       <c r="A73" s="9" t="s">
         <v>93</v>
       </c>
@@ -18820,7 +18831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" hidden="1" spans="1:4">
       <c r="A74" s="9" t="s">
         <v>93</v>
       </c>
@@ -18835,7 +18846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" hidden="1" spans="1:4">
       <c r="A75" s="9" t="s">
         <v>93</v>
       </c>
@@ -18850,7 +18861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" hidden="1" spans="1:4">
       <c r="A76" s="9" t="s">
         <v>93</v>
       </c>
@@ -18865,7 +18876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" hidden="1" spans="1:4">
       <c r="A77" s="9" t="s">
         <v>103</v>
       </c>
@@ -18880,7 +18891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" hidden="1" spans="1:4">
       <c r="A78" s="9" t="s">
         <v>103</v>
       </c>
@@ -18895,7 +18906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" hidden="1" spans="1:4">
       <c r="A79" s="9" t="s">
         <v>103</v>
       </c>
@@ -18910,7 +18921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" hidden="1" spans="1:4">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="10" t="s">
@@ -18921,7 +18932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" hidden="1" spans="1:4">
       <c r="A81" s="9" t="s">
         <v>108</v>
       </c>
@@ -18936,7 +18947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" hidden="1" spans="1:4">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="10" t="s">
@@ -18947,7 +18958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" hidden="1" spans="1:4">
       <c r="A83" s="9" t="s">
         <v>111</v>
       </c>
@@ -18962,7 +18973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" hidden="1" spans="1:4">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="10" t="s">
@@ -18973,7 +18984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" hidden="1" spans="1:4">
       <c r="A85" s="9" t="s">
         <v>114</v>
       </c>
@@ -18988,7 +18999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" hidden="1" spans="1:4">
       <c r="A86" s="9" t="s">
         <v>114</v>
       </c>
@@ -19003,7 +19014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" hidden="1" spans="1:4">
       <c r="A87" s="9" t="s">
         <v>114</v>
       </c>
@@ -19018,7 +19029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" hidden="1" spans="1:4">
       <c r="A88" s="9" t="s">
         <v>118</v>
       </c>
@@ -19033,7 +19044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" hidden="1" spans="1:4">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="10" t="s">
@@ -19044,7 +19055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" hidden="1" spans="1:4">
       <c r="A90" s="9" t="s">
         <v>24</v>
       </c>
@@ -19059,7 +19070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" hidden="1" spans="1:4">
       <c r="A91" s="9" t="s">
         <v>93</v>
       </c>
@@ -19074,9 +19085,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" hidden="1" spans="1:4">
       <c r="A92" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B92" s="9">
         <v>7992363545</v>
@@ -19089,7 +19100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" hidden="1" spans="1:4">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
       <c r="C93" s="10" t="s">
@@ -19100,7 +19111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" hidden="1" spans="1:4">
       <c r="A94" s="9" t="s">
         <v>126</v>
       </c>
@@ -19115,7 +19126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" hidden="1" spans="1:4">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="10" t="s">
@@ -19126,7 +19137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" hidden="1" spans="1:4">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="10" t="s">
@@ -19137,7 +19148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" hidden="1" spans="1:4">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="9" t="s">
@@ -19150,7 +19161,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="15" t="s">
-        <v>131</v>
+        <v>269</v>
       </c>
       <c r="B98" s="15"/>
       <c r="C98" s="15"/>
@@ -19159,10 +19170,10 @@
       </c>
       <c r="E98" s="8">
         <f>SUM(D99:D175)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="99" hidden="1" spans="1:4">
       <c r="A99" s="9" t="s">
         <v>133</v>
       </c>
@@ -19177,7 +19188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" hidden="1" spans="1:4">
       <c r="A100" s="9" t="s">
         <v>133</v>
       </c>
@@ -19190,7 +19201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" hidden="1" spans="1:4">
       <c r="A101" s="9" t="s">
         <v>133</v>
       </c>
@@ -19201,7 +19212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" hidden="1" spans="1:4">
       <c r="A102" s="9" t="s">
         <v>133</v>
       </c>
@@ -19214,7 +19225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" hidden="1" spans="1:4">
       <c r="A103" s="9" t="s">
         <v>133</v>
       </c>
@@ -19229,7 +19240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" hidden="1" spans="1:4">
       <c r="A104" s="9" t="s">
         <v>133</v>
       </c>
@@ -19244,7 +19255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" hidden="1" spans="1:4">
       <c r="A105" s="9" t="s">
         <v>133</v>
       </c>
@@ -19255,7 +19266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" hidden="1" spans="1:4">
       <c r="A106" s="9" t="s">
         <v>133</v>
       </c>
@@ -19280,10 +19291,10 @@
       </c>
       <c r="D107" s="11">
         <f>Orders!F107-Collection!H107</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="108" hidden="1" spans="1:4">
       <c r="A108" s="9" t="s">
         <v>133</v>
       </c>
@@ -19296,7 +19307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" hidden="1" spans="1:4">
       <c r="A109" s="9" t="s">
         <v>133</v>
       </c>
@@ -19309,7 +19320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" hidden="1" spans="1:4">
       <c r="A110" s="9" t="s">
         <v>133</v>
       </c>
@@ -19322,7 +19333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" hidden="1" spans="1:4">
       <c r="A111" s="9" t="s">
         <v>133</v>
       </c>
@@ -19337,7 +19348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" hidden="1" spans="1:4">
       <c r="A112" s="9" t="s">
         <v>133</v>
       </c>
@@ -19352,7 +19363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" hidden="1" spans="1:4">
       <c r="A113" s="9" t="s">
         <v>133</v>
       </c>
@@ -19367,7 +19378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" hidden="1" spans="1:4">
       <c r="A114" s="9" t="s">
         <v>133</v>
       </c>
@@ -19380,7 +19391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" hidden="1" spans="1:4">
       <c r="A115" s="9" t="s">
         <v>133</v>
       </c>
@@ -19395,7 +19406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" hidden="1" spans="1:4">
       <c r="A116" s="9" t="s">
         <v>133</v>
       </c>
@@ -19410,7 +19421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" hidden="1" spans="1:4">
       <c r="A117" s="9" t="s">
         <v>133</v>
       </c>
@@ -19425,7 +19436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" hidden="1" spans="1:4">
       <c r="A118" s="9" t="s">
         <v>133</v>
       </c>
@@ -19440,7 +19451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" hidden="1" spans="1:4">
       <c r="A119" s="9" t="s">
         <v>133</v>
       </c>
@@ -19455,7 +19466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" hidden="1" spans="1:4">
       <c r="A120" s="9" t="s">
         <v>133</v>
       </c>
@@ -19468,7 +19479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" hidden="1" spans="1:4">
       <c r="A121" s="9" t="s">
         <v>133</v>
       </c>
@@ -19483,7 +19494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" hidden="1" spans="1:4">
       <c r="A122" s="9" t="s">
         <v>133</v>
       </c>
@@ -19498,7 +19509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" hidden="1" spans="1:4">
       <c r="A123" s="9" t="s">
         <v>133</v>
       </c>
@@ -19511,7 +19522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" hidden="1" spans="1:4">
       <c r="A124" s="9" t="s">
         <v>133</v>
       </c>
@@ -19526,7 +19537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" hidden="1" spans="1:4">
       <c r="A125" s="9" t="s">
         <v>133</v>
       </c>
@@ -19541,7 +19552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" hidden="1" spans="1:4">
       <c r="A126" s="9" t="s">
         <v>133</v>
       </c>
@@ -19554,7 +19565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" hidden="1" spans="1:4">
       <c r="A127" s="9" t="s">
         <v>133</v>
       </c>
@@ -19569,7 +19580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" hidden="1" spans="1:4">
       <c r="A128" s="9" t="s">
         <v>133</v>
       </c>
@@ -19582,7 +19593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" hidden="1" spans="1:4">
       <c r="A129" s="9" t="s">
         <v>177</v>
       </c>
@@ -19593,7 +19604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" hidden="1" spans="1:4">
       <c r="A130" s="9" t="s">
         <v>177</v>
       </c>
@@ -19608,7 +19619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" hidden="1" spans="1:4">
       <c r="A131" s="9" t="s">
         <v>177</v>
       </c>
@@ -19623,7 +19634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" hidden="1" spans="1:4">
       <c r="A132" s="9" t="s">
         <v>177</v>
       </c>
@@ -19634,7 +19645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" hidden="1" spans="1:4">
       <c r="A133" s="9" t="s">
         <v>177</v>
       </c>
@@ -19649,7 +19660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" hidden="1" spans="1:4">
       <c r="A134" s="9" t="s">
         <v>177</v>
       </c>
@@ -19664,7 +19675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" hidden="1" spans="1:4">
       <c r="A135" s="9" t="s">
         <v>177</v>
       </c>
@@ -19679,7 +19690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" hidden="1" spans="1:4">
       <c r="A136" s="9" t="s">
         <v>177</v>
       </c>
@@ -19692,7 +19703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" hidden="1" spans="1:4">
       <c r="A137" s="9" t="s">
         <v>177</v>
       </c>
@@ -19705,7 +19716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" hidden="1" spans="1:4">
       <c r="A138" s="9" t="s">
         <v>177</v>
       </c>
@@ -19718,7 +19729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" hidden="1" spans="1:4">
       <c r="A139" s="9" t="s">
         <v>177</v>
       </c>
@@ -19731,7 +19742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" hidden="1" spans="1:4">
       <c r="A140" s="9" t="s">
         <v>177</v>
       </c>
@@ -19746,7 +19757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" hidden="1" spans="1:4">
       <c r="A141" s="9" t="s">
         <v>177</v>
       </c>
@@ -19761,7 +19772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" hidden="1" spans="1:4">
       <c r="A142" s="9" t="s">
         <v>177</v>
       </c>
@@ -19776,7 +19787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" hidden="1" spans="1:4">
       <c r="A143" s="9" t="s">
         <v>177</v>
       </c>
@@ -19791,7 +19802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" hidden="1" spans="1:4">
       <c r="A144" s="9" t="s">
         <v>177</v>
       </c>
@@ -19806,7 +19817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" hidden="1" spans="1:4">
       <c r="A145" s="9" t="s">
         <v>177</v>
       </c>
@@ -19819,7 +19830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" hidden="1" spans="1:4">
       <c r="A146" s="9" t="s">
         <v>193</v>
       </c>
@@ -19834,7 +19845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" hidden="1" spans="1:4">
       <c r="A147" s="9" t="s">
         <v>193</v>
       </c>
@@ -19847,7 +19858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" hidden="1" spans="1:4">
       <c r="A148" s="9" t="s">
         <v>193</v>
       </c>
@@ -19862,7 +19873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" hidden="1" spans="1:4">
       <c r="A149" s="9" t="s">
         <v>193</v>
       </c>
@@ -19873,7 +19884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" hidden="1" spans="1:4">
       <c r="A150" s="9" t="s">
         <v>193</v>
       </c>
@@ -19884,7 +19895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" hidden="1" spans="1:4">
       <c r="A151" s="9" t="s">
         <v>197</v>
       </c>
@@ -19899,7 +19910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" hidden="1" spans="1:4">
       <c r="A152" s="9" t="s">
         <v>197</v>
       </c>
@@ -19910,7 +19921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" hidden="1" spans="1:4">
       <c r="A153" s="9" t="s">
         <v>197</v>
       </c>
@@ -19925,7 +19936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" hidden="1" spans="1:4">
       <c r="A154" s="9" t="s">
         <v>197</v>
       </c>
@@ -19936,7 +19947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" hidden="1" spans="1:4">
       <c r="A155" s="9" t="s">
         <v>201</v>
       </c>
@@ -19949,7 +19960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" hidden="1" spans="1:4">
       <c r="A156" s="9" t="s">
         <v>201</v>
       </c>
@@ -19960,7 +19971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" hidden="1" spans="1:4">
       <c r="A157" s="9" t="s">
         <v>201</v>
       </c>
@@ -19971,7 +19982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" hidden="1" spans="1:4">
       <c r="A158" s="9" t="s">
         <v>24</v>
       </c>
@@ -19982,7 +19993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" hidden="1" spans="1:4">
       <c r="A159" s="9"/>
       <c r="B159" s="14"/>
       <c r="C159" s="9"/>
@@ -19991,7 +20002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" hidden="1" spans="1:4">
       <c r="A160" s="9" t="s">
         <v>203</v>
       </c>
@@ -20006,7 +20017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" hidden="1" spans="1:4">
       <c r="A161" s="9" t="s">
         <v>205</v>
       </c>
@@ -20021,7 +20032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" hidden="1" spans="1:4">
       <c r="A162" s="9"/>
       <c r="B162" s="14"/>
       <c r="C162" s="9"/>
@@ -20030,7 +20041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" hidden="1" spans="1:4">
       <c r="A163" s="9"/>
       <c r="B163" s="14"/>
       <c r="C163" s="9"/>
@@ -20039,7 +20050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" hidden="1" spans="1:4">
       <c r="A164" s="9"/>
       <c r="B164" s="14"/>
       <c r="C164" s="9"/>
@@ -20048,7 +20059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" hidden="1" spans="1:4">
       <c r="A165" s="9"/>
       <c r="B165" s="14"/>
       <c r="C165" s="9"/>
@@ -20057,7 +20068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" hidden="1" spans="1:4">
       <c r="A166" s="9" t="s">
         <v>78</v>
       </c>
@@ -20070,7 +20081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" hidden="1" spans="1:4">
       <c r="A167" s="9" t="s">
         <v>208</v>
       </c>
@@ -20085,7 +20096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" hidden="1" spans="1:4">
       <c r="A168" s="9" t="s">
         <v>208</v>
       </c>
@@ -20100,7 +20111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" hidden="1" spans="1:4">
       <c r="A169" s="9" t="s">
         <v>208</v>
       </c>
@@ -20115,7 +20126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" hidden="1" spans="1:4">
       <c r="A170" s="9" t="s">
         <v>208</v>
       </c>
@@ -20130,7 +20141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" hidden="1" spans="1:4">
       <c r="A171" s="9" t="s">
         <v>208</v>
       </c>
@@ -20145,7 +20156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" hidden="1" spans="1:4">
       <c r="A172" s="9" t="s">
         <v>208</v>
       </c>
@@ -20160,7 +20171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" hidden="1" spans="1:4">
       <c r="A173" s="9" t="s">
         <v>208</v>
       </c>
@@ -20175,7 +20186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" hidden="1" spans="1:4">
       <c r="A174" s="9" t="s">
         <v>217</v>
       </c>
@@ -20188,7 +20199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" hidden="1" spans="1:4">
       <c r="A175" s="9" t="s">
         <v>217</v>
       </c>
@@ -20209,7 +20220,15 @@
       <c r="C176" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D96">
+  <autoFilter ref="A1:D175">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="2650"/>
+        <filter val="3650"/>
+        <filter val="17250"/>
+        <filter val="0.1"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <mergeCells count="1">
